--- a/Triple_Merge.xlsx
+++ b/Triple_Merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="186">
   <si>
     <t>country</t>
   </si>
@@ -28,18 +28,9 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>check1</t>
-  </si>
-  <si>
     <t>forest_area</t>
   </si>
   <si>
-    <t>check2</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -581,9 +572,6 @@
   </si>
   <si>
     <t>europe</t>
-  </si>
-  <si>
-    <t>both</t>
   </si>
 </sst>
 </file>
@@ -941,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,22 +951,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C2">
         <v>0.368</v>
@@ -986,25 +965,16 @@
       <c r="D2">
         <v>3.8</v>
       </c>
-      <c r="E2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>1956</v>
       </c>
-      <c r="G2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3">
         <v>0.721</v>
@@ -1012,25 +982,16 @@
       <c r="D3">
         <v>1.22</v>
       </c>
-      <c r="E3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>69382.69</v>
       </c>
-      <c r="G3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4">
         <v>0.6890000000000001</v>
@@ -1038,25 +999,16 @@
       <c r="D4">
         <v>0.555</v>
       </c>
-      <c r="E4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
         <v>3385.15</v>
       </c>
-      <c r="G4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C5">
         <v>0.593</v>
@@ -1064,25 +1016,16 @@
       <c r="D5">
         <v>2.56</v>
       </c>
-      <c r="E5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>15846.2</v>
       </c>
-      <c r="G5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>0.623</v>
@@ -1090,25 +1033,16 @@
       <c r="D6">
         <v>0.182</v>
       </c>
-      <c r="E6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
         <v>6466.4</v>
       </c>
-      <c r="G6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7">
         <v>0.773</v>
@@ -1116,25 +1050,16 @@
       <c r="D7">
         <v>0.0386</v>
       </c>
-      <c r="E7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
         <v>279.64</v>
       </c>
-      <c r="G7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C8">
         <v>0.7290000000000001</v>
@@ -1142,25 +1067,16 @@
       <c r="D8">
         <v>0.333</v>
       </c>
-      <c r="E8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
         <v>20620.48</v>
       </c>
-      <c r="G8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9">
         <v>0.5379999999999999</v>
@@ -1168,25 +1084,16 @@
       <c r="D9">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
         <v>44.22</v>
       </c>
-      <c r="G9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C10">
         <v>0.6709999999999999</v>
@@ -1194,25 +1101,16 @@
       <c r="D10">
         <v>0.0653</v>
       </c>
-      <c r="E10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
         <v>22453</v>
       </c>
-      <c r="G10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C11">
         <v>0.672</v>
@@ -1220,25 +1118,16 @@
       <c r="D11">
         <v>0.0694</v>
       </c>
-      <c r="E11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>4890</v>
       </c>
-      <c r="G11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C12">
         <v>0.41</v>
@@ -1246,25 +1135,16 @@
       <c r="D12">
         <v>0.217</v>
       </c>
-      <c r="E12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <v>35.11</v>
       </c>
-      <c r="G12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13">
         <v>0.6970000000000001</v>
@@ -1272,25 +1152,16 @@
       <c r="D13">
         <v>0.0367</v>
       </c>
-      <c r="E13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
         <v>131662.12</v>
       </c>
-      <c r="G13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14">
         <v>0.628</v>
@@ -1298,25 +1169,16 @@
       <c r="D14">
         <v>0.649</v>
       </c>
-      <c r="E14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>22015</v>
       </c>
-      <c r="G14" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C15">
         <v>0.5629999999999999</v>
@@ -1324,25 +1186,16 @@
       <c r="D15">
         <v>0.405</v>
       </c>
-      <c r="E15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>3401.15</v>
       </c>
-      <c r="G15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16">
         <v>0.555</v>
@@ -1350,25 +1203,16 @@
       <c r="D16">
         <v>0.665</v>
       </c>
-      <c r="E16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
         <v>5.6</v>
       </c>
-      <c r="G16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C17">
         <v>0.417</v>
@@ -1376,25 +1220,16 @@
       <c r="D17">
         <v>2.37</v>
       </c>
-      <c r="E17" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
         <v>48.42</v>
       </c>
-      <c r="G17" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18">
         <v>0.5629999999999999</v>
@@ -1402,25 +1237,16 @@
       <c r="D18">
         <v>5.16</v>
       </c>
-      <c r="E18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
         <v>2490.22</v>
       </c>
-      <c r="G18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C19">
         <v>0.7609999999999999</v>
@@ -1428,25 +1254,16 @@
       <c r="D19">
         <v>0.201</v>
       </c>
-      <c r="E19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
         <v>1071.06</v>
       </c>
-      <c r="G19" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C20">
         <v>0.785</v>
@@ -1454,25 +1271,16 @@
       <c r="D20">
         <v>0.128</v>
       </c>
-      <c r="E20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
         <v>17433.5</v>
       </c>
-      <c r="G20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C21">
         <v>0.407</v>
@@ -1480,25 +1288,16 @@
       <c r="D21">
         <v>2.69</v>
       </c>
-      <c r="E21" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <v>23590</v>
       </c>
-      <c r="G21" t="s">
-        <v>189</v>
-      </c>
-      <c r="H21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22">
         <v>0.537</v>
@@ -1506,25 +1305,16 @@
       <c r="D22">
         <v>0.251</v>
       </c>
-      <c r="E22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22">
+      <c r="E22">
         <v>271.34</v>
       </c>
-      <c r="G22" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C23">
         <v>0.7509999999999999</v>
@@ -1532,25 +1322,16 @@
       <c r="D23">
         <v>0.579</v>
       </c>
-      <c r="E23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23">
+      <c r="E23">
         <v>7880.44</v>
       </c>
-      <c r="G23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C24">
         <v>0.615</v>
@@ -1558,25 +1339,16 @@
       <c r="D24">
         <v>0.215</v>
       </c>
-      <c r="E24" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <v>6389</v>
       </c>
-      <c r="G24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25">
         <v>0.6709999999999999</v>
@@ -1584,25 +1356,16 @@
       <c r="D25">
         <v>0.16</v>
       </c>
-      <c r="E25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25">
+      <c r="E25">
         <v>2022.21</v>
       </c>
-      <c r="G25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26">
         <v>0.58</v>
@@ -1610,25 +1373,16 @@
       <c r="D26">
         <v>0.341</v>
       </c>
-      <c r="E26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26">
+      <c r="E26">
         <v>3522.41</v>
       </c>
-      <c r="G26" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C27">
         <v>0.483</v>
@@ -1636,25 +1390,16 @@
       <c r="D27">
         <v>1.14</v>
       </c>
-      <c r="E27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27">
+      <c r="E27">
         <v>34.52</v>
       </c>
-      <c r="G27" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C28">
         <v>0.546</v>
@@ -1662,25 +1407,16 @@
       <c r="D28">
         <v>0.27</v>
       </c>
-      <c r="E28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28">
+      <c r="E28">
         <v>7768.74</v>
       </c>
-      <c r="G28" t="s">
-        <v>189</v>
-      </c>
-      <c r="H28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C29">
         <v>0.428</v>
@@ -1688,25 +1424,16 @@
       <c r="D29">
         <v>8.789999999999999</v>
       </c>
-      <c r="E29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F29">
+      <c r="E29">
         <v>217</v>
       </c>
-      <c r="G29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C30">
         <v>0.85</v>
@@ -1714,25 +1441,16 @@
       <c r="D30">
         <v>0.149</v>
       </c>
-      <c r="E30" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30">
+      <c r="E30">
         <v>12495.89</v>
       </c>
-      <c r="G30" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C31">
         <v>0.725</v>
@@ -1740,25 +1458,16 @@
       <c r="D31">
         <v>0.0669</v>
       </c>
-      <c r="E31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31">
+      <c r="E31">
         <v>2451.7</v>
       </c>
-      <c r="G31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C32">
         <v>0.657</v>
@@ -1766,25 +1475,16 @@
       <c r="D32">
         <v>0.178</v>
       </c>
-      <c r="E32" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32">
+      <c r="E32">
         <v>13296</v>
       </c>
-      <c r="G32" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C33">
         <v>0.445</v>
@@ -1792,25 +1492,16 @@
       <c r="D33">
         <v>0.609</v>
       </c>
-      <c r="E33" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33">
+      <c r="E33">
         <v>340.04</v>
       </c>
-      <c r="G33" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C34">
         <v>0.5489999999999999</v>
@@ -1818,25 +1509,16 @@
       <c r="D34">
         <v>3.35</v>
       </c>
-      <c r="E34" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34">
+      <c r="E34">
         <v>38.3</v>
       </c>
-      <c r="G34" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C35">
         <v>0.4429999999999999</v>
@@ -1844,25 +1526,16 @@
       <c r="D35">
         <v>1.76</v>
       </c>
-      <c r="E35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35">
+      <c r="E35">
         <v>5684.69</v>
       </c>
-      <c r="G35" t="s">
-        <v>189</v>
-      </c>
-      <c r="H35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C36">
         <v>0.59</v>
@@ -1870,25 +1543,16 @@
       <c r="D36">
         <v>0.233</v>
       </c>
-      <c r="E36" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36">
+      <c r="E36">
         <v>37940</v>
       </c>
-      <c r="G36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C37">
         <v>0.491</v>
@@ -1896,25 +1560,16 @@
       <c r="D37">
         <v>1.71</v>
       </c>
-      <c r="E37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37">
+      <c r="E37">
         <v>6993.95</v>
       </c>
-      <c r="G37" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C38">
         <v>0.787</v>
@@ -1922,25 +1577,16 @@
       <c r="D38">
         <v>0.101</v>
       </c>
-      <c r="E38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38">
+      <c r="E38">
         <v>1141.8</v>
       </c>
-      <c r="G38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C39">
         <v>0.527</v>
@@ -1948,25 +1594,16 @@
       <c r="D39">
         <v>0.627</v>
       </c>
-      <c r="E39" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39">
+      <c r="E39">
         <v>22443.45</v>
       </c>
-      <c r="G39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C40">
         <v>0.8540000000000001</v>
@@ -1974,25 +1611,16 @@
       <c r="D40">
         <v>0.08160000000000001</v>
       </c>
-      <c r="E40" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40">
+      <c r="E40">
         <v>270</v>
       </c>
-      <c r="G40" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C41">
         <v>0.504</v>
@@ -2000,25 +1628,16 @@
       <c r="D41">
         <v>0.57</v>
       </c>
-      <c r="E41" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41">
+      <c r="E41">
         <v>55</v>
       </c>
-      <c r="G41" t="s">
-        <v>189</v>
-      </c>
-      <c r="H41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C42">
         <v>0.542</v>
@@ -2026,25 +1645,16 @@
       <c r="D42">
         <v>0.695</v>
       </c>
-      <c r="E42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42">
+      <c r="E42">
         <v>8268.16</v>
       </c>
-      <c r="G42" t="s">
-        <v>189</v>
-      </c>
-      <c r="H42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C43">
         <v>0.555</v>
@@ -2052,25 +1662,16 @@
       <c r="D43">
         <v>0.126</v>
       </c>
-      <c r="E43" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43">
+      <c r="E43">
         <v>2633.53</v>
       </c>
-      <c r="G43" t="s">
-        <v>189</v>
-      </c>
-      <c r="H43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C44">
         <v>0.4320000000000001</v>
@@ -2078,25 +1679,16 @@
       <c r="D44">
         <v>0.0457</v>
       </c>
-      <c r="E44" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44">
+      <c r="E44">
         <v>6363.75</v>
       </c>
-      <c r="G44" t="s">
-        <v>189</v>
-      </c>
-      <c r="H44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C45">
         <v>0.409</v>
@@ -2104,25 +1696,16 @@
       <c r="D45">
         <v>8.35</v>
       </c>
-      <c r="E45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45">
+      <c r="E45">
         <v>17232.09</v>
       </c>
-      <c r="G45" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C46">
         <v>0.407</v>
@@ -2130,25 +1713,16 @@
       <c r="D46">
         <v>0.499</v>
       </c>
-      <c r="E46" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46">
+      <c r="E46">
         <v>19209.93</v>
       </c>
-      <c r="G46" t="s">
-        <v>189</v>
-      </c>
-      <c r="H46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C47">
         <v>0.8159999999999999</v>
@@ -2156,25 +1730,16 @@
       <c r="D47">
         <v>0.244</v>
       </c>
-      <c r="E47" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47">
+      <c r="E47">
         <v>48090</v>
       </c>
-      <c r="G47" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C48">
         <v>0.764</v>
@@ -2182,25 +1747,16 @@
       <c r="D48">
         <v>0.369</v>
       </c>
-      <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48">
+      <c r="E48">
         <v>1224.07</v>
       </c>
-      <c r="G48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C49">
         <v>0.4</v>
@@ -2208,25 +1764,16 @@
       <c r="D49">
         <v>2.62</v>
       </c>
-      <c r="E49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49">
+      <c r="E49">
         <v>695.08</v>
       </c>
-      <c r="G49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C50">
         <v>0.6940000000000001</v>
@@ -2234,25 +1781,16 @@
       <c r="D50">
         <v>0.133</v>
       </c>
-      <c r="E50" t="s">
-        <v>189</v>
-      </c>
-      <c r="F50">
+      <c r="E50">
         <v>2544.16</v>
       </c>
-      <c r="G50" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C51">
         <v>0.6909999999999999</v>
@@ -2260,25 +1798,16 @@
       <c r="D51">
         <v>0.271</v>
       </c>
-      <c r="E51" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51">
+      <c r="E51">
         <v>45755.1</v>
       </c>
-      <c r="G51" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C52">
         <v>0.79</v>
@@ -2286,25 +1815,16 @@
       <c r="D52">
         <v>0.881</v>
       </c>
-      <c r="E52" t="s">
-        <v>189</v>
-      </c>
-      <c r="F52">
+      <c r="E52">
         <v>17674.93</v>
       </c>
-      <c r="G52" t="s">
-        <v>189</v>
-      </c>
-      <c r="H52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C53">
         <v>0.637</v>
@@ -2312,25 +1832,16 @@
       <c r="D53">
         <v>0.181</v>
       </c>
-      <c r="E53" t="s">
-        <v>189</v>
-      </c>
-      <c r="F53">
+      <c r="E53">
         <v>7157</v>
       </c>
-      <c r="G53" t="s">
-        <v>189</v>
-      </c>
-      <c r="H53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C54">
         <v>0.5570000000000001</v>
@@ -2338,25 +1849,16 @@
       <c r="D54">
         <v>4.64</v>
       </c>
-      <c r="E54" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54">
+      <c r="E54">
         <v>29097</v>
       </c>
-      <c r="G54" t="s">
-        <v>189</v>
-      </c>
-      <c r="H54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C55">
         <v>0.6659999999999999</v>
@@ -2364,25 +1866,16 @@
       <c r="D55">
         <v>5.39</v>
       </c>
-      <c r="E55" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55">
+      <c r="E55">
         <v>509.86</v>
       </c>
-      <c r="G55" t="s">
-        <v>189</v>
-      </c>
-      <c r="H55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C56">
         <v>0.5820000000000001</v>
@@ -2390,25 +1883,16 @@
       <c r="D56">
         <v>4.36</v>
       </c>
-      <c r="E56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56">
+      <c r="E56">
         <v>6.3</v>
       </c>
-      <c r="G56" t="s">
-        <v>189</v>
-      </c>
-      <c r="H56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C57">
         <v>0.598</v>
@@ -2416,25 +1900,16 @@
       <c r="D57">
         <v>1.61</v>
       </c>
-      <c r="E57" t="s">
-        <v>189</v>
-      </c>
-      <c r="F57">
+      <c r="E57">
         <v>1332.83</v>
       </c>
-      <c r="G57" t="s">
-        <v>189</v>
-      </c>
-      <c r="H57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C58">
         <v>0.65</v>
@@ -2442,25 +1917,16 @@
       <c r="D58">
         <v>1.81</v>
       </c>
-      <c r="E58" t="s">
-        <v>189</v>
-      </c>
-      <c r="F58">
+      <c r="E58">
         <v>52027.22</v>
       </c>
-      <c r="G58" t="s">
-        <v>189</v>
-      </c>
-      <c r="H58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C59">
         <v>0.5870000000000001</v>
@@ -2468,25 +1934,16 @@
       <c r="D59">
         <v>2.42</v>
       </c>
-      <c r="E59" t="s">
-        <v>189</v>
-      </c>
-      <c r="F59">
+      <c r="E59">
         <v>503884.8</v>
       </c>
-      <c r="G59" t="s">
-        <v>189</v>
-      </c>
-      <c r="H59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C60">
         <v>0.61</v>
@@ -2494,25 +1951,16 @@
       <c r="D60">
         <v>16</v>
       </c>
-      <c r="E60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F60">
+      <c r="E60">
         <v>347115.71</v>
       </c>
-      <c r="G60" t="s">
-        <v>189</v>
-      </c>
-      <c r="H60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C61">
         <v>0.5820000000000001</v>
@@ -2520,25 +1968,16 @@
       <c r="D61">
         <v>4.55</v>
       </c>
-      <c r="E61" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61">
+      <c r="E61">
         <v>17596.08</v>
       </c>
-      <c r="G61" t="s">
-        <v>189</v>
-      </c>
-      <c r="H61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C62">
         <v>0.648</v>
@@ -2546,25 +1985,16 @@
       <c r="D62">
         <v>1.96</v>
       </c>
-      <c r="E62" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62">
+      <c r="E62">
         <v>60134.66</v>
       </c>
-      <c r="G62" t="s">
-        <v>189</v>
-      </c>
-      <c r="H62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C63">
         <v>0.5639999999999999</v>
@@ -2572,25 +2002,16 @@
       <c r="D63">
         <v>1.51</v>
       </c>
-      <c r="E63" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63">
+      <c r="E63">
         <v>2953.03</v>
       </c>
-      <c r="G63" t="s">
-        <v>189</v>
-      </c>
-      <c r="H63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C64">
         <v>0.534</v>
@@ -2598,25 +2019,16 @@
       <c r="D64">
         <v>2.57</v>
       </c>
-      <c r="E64" t="s">
-        <v>189</v>
-      </c>
-      <c r="F64">
+      <c r="E64">
         <v>3184</v>
       </c>
-      <c r="G64" t="s">
-        <v>189</v>
-      </c>
-      <c r="H64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C65">
         <v>0.627</v>
@@ -2624,25 +2036,16 @@
       <c r="D65">
         <v>2.29</v>
       </c>
-      <c r="E65" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65">
+      <c r="E65">
         <v>2103.65</v>
       </c>
-      <c r="G65" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C66">
         <v>0.642</v>
@@ -2650,25 +2053,16 @@
       <c r="D66">
         <v>2.63</v>
       </c>
-      <c r="E66" t="s">
-        <v>189</v>
-      </c>
-      <c r="F66">
+      <c r="E66">
         <v>12819.18</v>
       </c>
-      <c r="G66" t="s">
-        <v>189</v>
-      </c>
-      <c r="H66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C67">
         <v>0.59</v>
@@ -2676,25 +2070,16 @@
       <c r="D67">
         <v>1.07</v>
       </c>
-      <c r="E67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67">
+      <c r="E67">
         <v>606.38</v>
       </c>
-      <c r="G67" t="s">
-        <v>189</v>
-      </c>
-      <c r="H67" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C68">
         <v>0.598</v>
@@ -2702,25 +2087,16 @@
       <c r="D68">
         <v>0.95</v>
       </c>
-      <c r="E68" t="s">
-        <v>189</v>
-      </c>
-      <c r="F68">
+      <c r="E68">
         <v>3585.8</v>
       </c>
-      <c r="G68" t="s">
-        <v>189</v>
-      </c>
-      <c r="H68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C69">
         <v>0.507</v>
@@ -2728,25 +2104,16 @@
       <c r="D69">
         <v>2.61</v>
       </c>
-      <c r="E69" t="s">
-        <v>189</v>
-      </c>
-      <c r="F69">
+      <c r="E69">
         <v>18461.36</v>
       </c>
-      <c r="G69" t="s">
-        <v>189</v>
-      </c>
-      <c r="H69" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C70">
         <v>0.581</v>
@@ -2754,25 +2121,16 @@
       <c r="D70">
         <v>0.272</v>
       </c>
-      <c r="E70" t="s">
-        <v>189</v>
-      </c>
-      <c r="F70">
+      <c r="E70">
         <v>362.85</v>
       </c>
-      <c r="G70" t="s">
-        <v>189</v>
-      </c>
-      <c r="H70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C71">
         <v>0.647</v>
@@ -2780,25 +2138,16 @@
       <c r="D71">
         <v>1.08</v>
       </c>
-      <c r="E71" t="s">
-        <v>189</v>
-      </c>
-      <c r="F71">
+      <c r="E71">
         <v>6463.83</v>
       </c>
-      <c r="G71" t="s">
-        <v>189</v>
-      </c>
-      <c r="H71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C72">
         <v>0.578</v>
@@ -2806,25 +2155,16 @@
       <c r="D72">
         <v>2.62</v>
       </c>
-      <c r="E72" t="s">
-        <v>189</v>
-      </c>
-      <c r="F72">
+      <c r="E72">
         <v>577.46</v>
       </c>
-      <c r="G72" t="s">
-        <v>189</v>
-      </c>
-      <c r="H72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C73">
         <v>0.5870000000000001</v>
@@ -2832,25 +2172,16 @@
       <c r="D73">
         <v>3.96</v>
       </c>
-      <c r="E73" t="s">
-        <v>189</v>
-      </c>
-      <c r="F73">
+      <c r="E73">
         <v>66330.91</v>
       </c>
-      <c r="G73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C74">
         <v>0.633</v>
@@ -2858,25 +2189,16 @@
       <c r="D74">
         <v>0.844</v>
       </c>
-      <c r="E74" t="s">
-        <v>189</v>
-      </c>
-      <c r="F74">
+      <c r="E74">
         <v>3907.53</v>
       </c>
-      <c r="G74" t="s">
-        <v>189</v>
-      </c>
-      <c r="H74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C75">
         <v>0.635</v>
@@ -2884,25 +2206,16 @@
       <c r="D75">
         <v>2.74</v>
       </c>
-      <c r="E75" t="s">
-        <v>189</v>
-      </c>
-      <c r="F75">
+      <c r="E75">
         <v>4270.91</v>
       </c>
-      <c r="G75" t="s">
-        <v>189</v>
-      </c>
-      <c r="H75" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C76">
         <v>0.664</v>
@@ -2910,25 +2223,16 @@
       <c r="D76">
         <v>0.905</v>
       </c>
-      <c r="E76" t="s">
-        <v>189</v>
-      </c>
-      <c r="F76">
+      <c r="E76">
         <v>17498.94</v>
       </c>
-      <c r="G76" t="s">
-        <v>189</v>
-      </c>
-      <c r="H76" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C77">
         <v>0.738</v>
@@ -2936,25 +2240,16 @@
       <c r="D77">
         <v>1.69</v>
       </c>
-      <c r="E77" t="s">
-        <v>189</v>
-      </c>
-      <c r="F77">
+      <c r="E77">
         <v>73194.53</v>
       </c>
-      <c r="G77" t="s">
-        <v>189</v>
-      </c>
-      <c r="H77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C78">
         <v>0.516</v>
@@ -2962,25 +2257,16 @@
       <c r="D78">
         <v>2.29</v>
       </c>
-      <c r="E78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78">
+      <c r="E78">
         <v>20.77</v>
       </c>
-      <c r="G78" t="s">
-        <v>189</v>
-      </c>
-      <c r="H78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C79">
         <v>0.57</v>
@@ -2988,25 +2274,16 @@
       <c r="D79">
         <v>2.02</v>
       </c>
-      <c r="E79" t="s">
-        <v>189</v>
-      </c>
-      <c r="F79">
+      <c r="E79">
         <v>28.54</v>
       </c>
-      <c r="G79" t="s">
-        <v>189</v>
-      </c>
-      <c r="H79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C80">
         <v>0.4970000000000001</v>
@@ -3014,25 +2291,16 @@
       <c r="D80">
         <v>3.06</v>
       </c>
-      <c r="E80" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80">
+      <c r="E80">
         <v>15251.67</v>
       </c>
-      <c r="G80" t="s">
-        <v>189</v>
-      </c>
-      <c r="H80" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C81">
         <v>0.606</v>
@@ -3040,25 +2308,16 @@
       <c r="D81">
         <v>33.7</v>
       </c>
-      <c r="E81" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81">
+      <c r="E81">
         <v>230.29</v>
       </c>
-      <c r="G81" t="s">
-        <v>189</v>
-      </c>
-      <c r="H81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C82">
         <v>0.5870000000000001</v>
@@ -3066,25 +2325,16 @@
       <c r="D82">
         <v>16.9</v>
       </c>
-      <c r="E82" t="s">
-        <v>189</v>
-      </c>
-      <c r="F82">
+      <c r="E82">
         <v>310095</v>
       </c>
-      <c r="G82" t="s">
-        <v>189</v>
-      </c>
-      <c r="H82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C83">
         <v>0.601</v>
@@ -3092,25 +2342,16 @@
       <c r="D83">
         <v>1.94</v>
       </c>
-      <c r="E83" t="s">
-        <v>189</v>
-      </c>
-      <c r="F83">
+      <c r="E83">
         <v>1920</v>
       </c>
-      <c r="G83" t="s">
-        <v>189</v>
-      </c>
-      <c r="H83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C84">
         <v>0.599</v>
@@ -3118,25 +2359,16 @@
       <c r="D84">
         <v>5.69</v>
       </c>
-      <c r="E84" t="s">
-        <v>189</v>
-      </c>
-      <c r="F84">
+      <c r="E84">
         <v>46683</v>
       </c>
-      <c r="G84" t="s">
-        <v>189</v>
-      </c>
-      <c r="H84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C85">
         <v>0.491</v>
@@ -3144,25 +2376,16 @@
       <c r="D85">
         <v>0.262</v>
       </c>
-      <c r="E85" t="s">
-        <v>189</v>
-      </c>
-      <c r="F85">
+      <c r="E85">
         <v>1208.44</v>
       </c>
-      <c r="G85" t="s">
-        <v>189</v>
-      </c>
-      <c r="H85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C86">
         <v>0.611</v>
@@ -3170,25 +2393,16 @@
       <c r="D86">
         <v>16.8</v>
       </c>
-      <c r="E86" t="s">
-        <v>189</v>
-      </c>
-      <c r="F86">
+      <c r="E86">
         <v>133094.5</v>
       </c>
-      <c r="G86" t="s">
-        <v>189</v>
-      </c>
-      <c r="H86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C87">
         <v>0.708</v>
@@ -3196,25 +2410,16 @@
       <c r="D87">
         <v>23.8</v>
       </c>
-      <c r="E87" t="s">
-        <v>189</v>
-      </c>
-      <c r="F87">
+      <c r="E87">
         <v>0.6</v>
       </c>
-      <c r="G87" t="s">
-        <v>189</v>
-      </c>
-      <c r="H87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C88">
         <v>0.54</v>
@@ -3222,25 +2427,16 @@
       <c r="D88">
         <v>0.467</v>
       </c>
-      <c r="E88" t="s">
-        <v>189</v>
-      </c>
-      <c r="F88">
+      <c r="E88">
         <v>1883.4</v>
       </c>
-      <c r="G88" t="s">
-        <v>189</v>
-      </c>
-      <c r="H88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C89">
         <v>0.65</v>
@@ -3248,25 +2444,16 @@
       <c r="D89">
         <v>1.34</v>
       </c>
-      <c r="E89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89">
+      <c r="E89">
         <v>2715.18</v>
       </c>
-      <c r="G89" t="s">
-        <v>189</v>
-      </c>
-      <c r="H89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C90">
         <v>0.63</v>
@@ -3274,25 +2461,16 @@
       <c r="D90">
         <v>16.8</v>
       </c>
-      <c r="E90" t="s">
-        <v>189</v>
-      </c>
-      <c r="F90">
+      <c r="E90">
         <v>380</v>
       </c>
-      <c r="G90" t="s">
-        <v>189</v>
-      </c>
-      <c r="H90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C91">
         <v>0.843</v>
@@ -3300,25 +2478,16 @@
       <c r="D91">
         <v>0.545</v>
       </c>
-      <c r="E91" t="s">
-        <v>189</v>
-      </c>
-      <c r="F91">
+      <c r="E91">
         <v>8846.82</v>
       </c>
-      <c r="G91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C92">
         <v>0.665</v>
@@ -3326,25 +2495,16 @@
       <c r="D92">
         <v>6.91</v>
       </c>
-      <c r="E92" t="s">
-        <v>189</v>
-      </c>
-      <c r="F92">
+      <c r="E92">
         <v>210294.25</v>
       </c>
-      <c r="G92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C93">
         <v>0.5489999999999999</v>
@@ -3352,25 +2512,16 @@
       <c r="D93">
         <v>2.45</v>
       </c>
-      <c r="E93" t="s">
-        <v>189</v>
-      </c>
-      <c r="F93">
+      <c r="E93">
         <v>1106.62</v>
       </c>
-      <c r="G93" t="s">
-        <v>189</v>
-      </c>
-      <c r="H93" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C94">
         <v>0.521</v>
@@ -3378,25 +2529,16 @@
       <c r="D94">
         <v>1.76</v>
       </c>
-      <c r="E94" t="s">
-        <v>189</v>
-      </c>
-      <c r="F94">
+      <c r="E94">
         <v>70828</v>
       </c>
-      <c r="G94" t="s">
-        <v>189</v>
-      </c>
-      <c r="H94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C95">
         <v>0.629</v>
@@ -3404,25 +2546,16 @@
       <c r="D95">
         <v>1.96</v>
       </c>
-      <c r="E95" t="s">
-        <v>189</v>
-      </c>
-      <c r="F95">
+      <c r="E95">
         <v>95027.89999999999</v>
       </c>
-      <c r="G95" t="s">
-        <v>189</v>
-      </c>
-      <c r="H95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C96">
         <v>0.381</v>
@@ -3430,25 +2563,16 @@
       <c r="D96">
         <v>8.17</v>
       </c>
-      <c r="E96" t="s">
-        <v>189</v>
-      </c>
-      <c r="F96">
+      <c r="E96">
         <v>10691.98</v>
       </c>
-      <c r="G96" t="s">
-        <v>189</v>
-      </c>
-      <c r="H96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C97">
         <v>0.428</v>
@@ -3456,25 +2580,16 @@
       <c r="D97">
         <v>4.66</v>
       </c>
-      <c r="E97" t="s">
-        <v>189</v>
-      </c>
-      <c r="F97">
+      <c r="E97">
         <v>825</v>
       </c>
-      <c r="G97" t="s">
-        <v>189</v>
-      </c>
-      <c r="H97" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C98">
         <v>0.608</v>
@@ -3482,25 +2597,16 @@
       <c r="D98">
         <v>8.15</v>
       </c>
-      <c r="E98" t="s">
-        <v>189</v>
-      </c>
-      <c r="F98">
+      <c r="E98">
         <v>165</v>
       </c>
-      <c r="G98" t="s">
-        <v>189</v>
-      </c>
-      <c r="H98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C99">
         <v>0.58</v>
@@ -3508,25 +2614,16 @@
       <c r="D99">
         <v>9.58</v>
       </c>
-      <c r="E99" t="s">
-        <v>189</v>
-      </c>
-      <c r="F99">
+      <c r="E99">
         <v>24944</v>
       </c>
-      <c r="G99" t="s">
-        <v>189</v>
-      </c>
-      <c r="H99" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C100">
         <v>0.34</v>
@@ -3534,25 +2631,16 @@
       <c r="D100">
         <v>2.75</v>
       </c>
-      <c r="E100" t="s">
-        <v>189</v>
-      </c>
-      <c r="F100">
+      <c r="E100">
         <v>97.5</v>
       </c>
-      <c r="G100" t="s">
-        <v>189</v>
-      </c>
-      <c r="H100" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C101">
         <v>0.674</v>
@@ -3560,25 +2648,16 @@
       <c r="D101">
         <v>15</v>
       </c>
-      <c r="E101" t="s">
-        <v>189</v>
-      </c>
-      <c r="F101">
+      <c r="E101">
         <v>3308.4562</v>
       </c>
-      <c r="G101" t="s">
-        <v>189</v>
-      </c>
-      <c r="H101" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C102">
         <v>0.769</v>
@@ -3586,25 +2665,16 @@
       <c r="D102">
         <v>0.978</v>
       </c>
-      <c r="E102" t="s">
-        <v>189</v>
-      </c>
-      <c r="F102">
+      <c r="E102">
         <v>6337</v>
       </c>
-      <c r="G102" t="s">
-        <v>189</v>
-      </c>
-      <c r="H102" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C103">
         <v>0.602</v>
@@ -3612,25 +2682,16 @@
       <c r="D103">
         <v>11.7</v>
       </c>
-      <c r="E103" t="s">
-        <v>189</v>
-      </c>
-      <c r="F103">
+      <c r="E103">
         <v>6136.24</v>
       </c>
-      <c r="G103" t="s">
-        <v>189</v>
-      </c>
-      <c r="H103" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C104">
         <v>0.6890000000000001</v>
@@ -3638,25 +2699,16 @@
       <c r="D104">
         <v>24.1</v>
       </c>
-      <c r="E104" t="s">
-        <v>189</v>
-      </c>
-      <c r="F104">
+      <c r="E104">
         <v>6.25</v>
       </c>
-      <c r="G104" t="s">
-        <v>189</v>
-      </c>
-      <c r="H104" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C105">
         <v>0.5770000000000001</v>
@@ -3664,25 +2716,16 @@
       <c r="D105">
         <v>1.73</v>
       </c>
-      <c r="E105" t="s">
-        <v>189</v>
-      </c>
-      <c r="F105">
+      <c r="E105">
         <v>1251.81</v>
       </c>
-      <c r="G105" t="s">
-        <v>189</v>
-      </c>
-      <c r="H105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C106">
         <v>0.777</v>
@@ -3690,25 +2733,16 @@
       <c r="D106">
         <v>1.31</v>
       </c>
-      <c r="E106" t="s">
-        <v>189</v>
-      </c>
-      <c r="F106">
+      <c r="E106">
         <v>16768</v>
       </c>
-      <c r="G106" t="s">
-        <v>189</v>
-      </c>
-      <c r="H106" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C107">
         <v>0.4379999999999999</v>
@@ -3716,25 +2750,16 @@
       <c r="D107">
         <v>3.69</v>
       </c>
-      <c r="E107" t="s">
-        <v>189</v>
-      </c>
-      <c r="F107">
+      <c r="E107">
         <v>140.33</v>
       </c>
-      <c r="G107" t="s">
-        <v>189</v>
-      </c>
-      <c r="H107" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C108">
         <v>0.623</v>
@@ -3742,25 +2767,16 @@
       <c r="D108">
         <v>7.71</v>
       </c>
-      <c r="E108" t="s">
-        <v>189</v>
-      </c>
-      <c r="F108">
+      <c r="E108">
         <v>19464.22</v>
       </c>
-      <c r="G108" t="s">
-        <v>189</v>
-      </c>
-      <c r="H108" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C109">
         <v>0.628</v>
@@ -3768,25 +2784,16 @@
       <c r="D109">
         <v>2.86</v>
       </c>
-      <c r="E109" t="s">
-        <v>189</v>
-      </c>
-      <c r="F109">
+      <c r="E109">
         <v>0.82</v>
       </c>
-      <c r="G109" t="s">
-        <v>189</v>
-      </c>
-      <c r="H109" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C110">
         <v>0.574</v>
@@ -3794,25 +2801,16 @@
       <c r="D110">
         <v>7.76</v>
       </c>
-      <c r="E110" t="s">
-        <v>189</v>
-      </c>
-      <c r="F110">
+      <c r="E110">
         <v>14178.33</v>
       </c>
-      <c r="G110" t="s">
-        <v>189</v>
-      </c>
-      <c r="H110" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C111">
         <v>0.6509999999999999</v>
@@ -3820,25 +2818,16 @@
       <c r="D111">
         <v>0.421</v>
       </c>
-      <c r="E111" t="s">
-        <v>189</v>
-      </c>
-      <c r="F111">
+      <c r="E111">
         <v>29992.44</v>
       </c>
-      <c r="G111" t="s">
-        <v>189</v>
-      </c>
-      <c r="H111" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C112">
         <v>0.8149999999999999</v>
@@ -3846,25 +2835,16 @@
       <c r="D112">
         <v>0.223</v>
       </c>
-      <c r="E112" t="s">
-        <v>189</v>
-      </c>
-      <c r="F112">
+      <c r="E112">
         <v>5962.03</v>
       </c>
-      <c r="G112" t="s">
-        <v>189</v>
-      </c>
-      <c r="H112" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C113">
         <v>0.647</v>
@@ -3872,25 +2852,16 @@
       <c r="D113">
         <v>7.77</v>
       </c>
-      <c r="E113" t="s">
-        <v>189</v>
-      </c>
-      <c r="F113">
+      <c r="E113">
         <v>9846.610000000001</v>
       </c>
-      <c r="G113" t="s">
-        <v>189</v>
-      </c>
-      <c r="H113" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C114">
         <v>0.6729999999999999</v>
@@ -3898,25 +2869,16 @@
       <c r="D114">
         <v>15.1</v>
       </c>
-      <c r="E114" t="s">
-        <v>189</v>
-      </c>
-      <c r="F114">
+      <c r="E114">
         <v>3</v>
       </c>
-      <c r="G114" t="s">
-        <v>189</v>
-      </c>
-      <c r="H114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C115">
         <v>0.513</v>
@@ -3924,25 +2886,16 @@
       <c r="D115">
         <v>0.926</v>
       </c>
-      <c r="E115" t="s">
-        <v>189</v>
-      </c>
-      <c r="F115">
+      <c r="E115">
         <v>3932.6</v>
       </c>
-      <c r="G115" t="s">
-        <v>189</v>
-      </c>
-      <c r="H115" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C116">
         <v>0.6820000000000001</v>
@@ -3950,25 +2903,16 @@
       <c r="D116">
         <v>0.91</v>
       </c>
-      <c r="E116" t="s">
-        <v>189</v>
-      </c>
-      <c r="F116">
+      <c r="E116">
         <v>36024.4209</v>
       </c>
-      <c r="G116" t="s">
-        <v>189</v>
-      </c>
-      <c r="H116" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C117">
         <v>0.605</v>
@@ -3976,25 +2920,16 @@
       <c r="D117">
         <v>1.12</v>
       </c>
-      <c r="E117" t="s">
-        <v>189</v>
-      </c>
-      <c r="F117">
+      <c r="E117">
         <v>7014.15</v>
       </c>
-      <c r="G117" t="s">
-        <v>189</v>
-      </c>
-      <c r="H117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C118">
         <v>0.8740000000000001</v>
@@ -4002,25 +2937,16 @@
       <c r="D118">
         <v>41.3</v>
       </c>
-      <c r="E118" t="s">
-        <v>189</v>
-      </c>
-      <c r="F118">
+      <c r="E118">
         <v>0</v>
       </c>
-      <c r="G118" t="s">
-        <v>189</v>
-      </c>
-      <c r="H118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C119">
         <v>0.292</v>
@@ -4028,25 +2954,16 @@
       <c r="D119">
         <v>1.21</v>
       </c>
-      <c r="E119" t="s">
-        <v>189</v>
-      </c>
-      <c r="F119">
+      <c r="E119">
         <v>164.07</v>
       </c>
-      <c r="G119" t="s">
-        <v>189</v>
-      </c>
-      <c r="H119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C120">
         <v>0.525</v>
@@ -4054,25 +2971,16 @@
       <c r="D120">
         <v>19.6</v>
       </c>
-      <c r="E120" t="s">
-        <v>189</v>
-      </c>
-      <c r="F120">
+      <c r="E120">
         <v>977</v>
       </c>
-      <c r="G120" t="s">
-        <v>189</v>
-      </c>
-      <c r="H120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C121">
         <v>0.677</v>
@@ -4080,25 +2988,16 @@
       <c r="D121">
         <v>11</v>
       </c>
-      <c r="E121" t="s">
-        <v>189</v>
-      </c>
-      <c r="F121">
+      <c r="E121">
         <v>16.4714</v>
       </c>
-      <c r="G121" t="s">
-        <v>189</v>
-      </c>
-      <c r="H121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C122">
         <v>0.701</v>
@@ -4106,25 +3005,16 @@
       <c r="D122">
         <v>0.316</v>
       </c>
-      <c r="E122" t="s">
-        <v>189</v>
-      </c>
-      <c r="F122">
+      <c r="E122">
         <v>2526.62</v>
       </c>
-      <c r="G122" t="s">
-        <v>189</v>
-      </c>
-      <c r="H122" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C123">
         <v>0.514</v>
@@ -4132,25 +3022,16 @@
       <c r="D123">
         <v>0.949</v>
       </c>
-      <c r="E123" t="s">
-        <v>189</v>
-      </c>
-      <c r="F123">
+      <c r="E123">
         <v>2128.82</v>
       </c>
-      <c r="G123" t="s">
-        <v>189</v>
-      </c>
-      <c r="H123" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C124">
         <v>0.355</v>
@@ -4158,25 +3039,16 @@
       <c r="D124">
         <v>1.59</v>
       </c>
-      <c r="E124" t="s">
-        <v>189</v>
-      </c>
-      <c r="F124">
+      <c r="E124">
         <v>522.08</v>
       </c>
-      <c r="G124" t="s">
-        <v>189</v>
-      </c>
-      <c r="H124" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C125">
         <v>0.531</v>
@@ -4184,25 +3056,16 @@
       <c r="D125">
         <v>0.574</v>
       </c>
-      <c r="E125" t="s">
-        <v>189</v>
-      </c>
-      <c r="F125">
+      <c r="E125">
         <v>421.8</v>
       </c>
-      <c r="G125" t="s">
-        <v>189</v>
-      </c>
-      <c r="H125" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C126">
         <v>0.6870000000000001</v>
@@ -4210,25 +3073,16 @@
       <c r="D126">
         <v>4.1</v>
       </c>
-      <c r="E126" t="s">
-        <v>189</v>
-      </c>
-      <c r="F126">
+      <c r="E126">
         <v>20061</v>
       </c>
-      <c r="G126" t="s">
-        <v>189</v>
-      </c>
-      <c r="H126" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C127">
         <v>0.379</v>
@@ -4236,25 +3090,16 @@
       <c r="D127">
         <v>0.42</v>
       </c>
-      <c r="E127" t="s">
-        <v>189</v>
-      </c>
-      <c r="F127">
+      <c r="E127">
         <v>928.1</v>
       </c>
-      <c r="G127" t="s">
-        <v>189</v>
-      </c>
-      <c r="H127" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C128">
         <v>0.589</v>
@@ -4262,25 +3107,16 @@
       <c r="D128">
         <v>1.2</v>
       </c>
-      <c r="E128" t="s">
-        <v>189</v>
-      </c>
-      <c r="F128">
+      <c r="E128">
         <v>8.949999999999999</v>
       </c>
-      <c r="G128" t="s">
-        <v>189</v>
-      </c>
-      <c r="H128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C129">
         <v>0.631</v>
@@ -4288,25 +3124,16 @@
       <c r="D129">
         <v>12.6</v>
       </c>
-      <c r="E129" t="s">
-        <v>189</v>
-      </c>
-      <c r="F129">
+      <c r="E129">
         <v>4127</v>
       </c>
-      <c r="G129" t="s">
-        <v>189</v>
-      </c>
-      <c r="H129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C130">
         <v>0.797</v>
@@ -4314,25 +3141,16 @@
       <c r="D130">
         <v>20.7</v>
       </c>
-      <c r="E130" t="s">
-        <v>189</v>
-      </c>
-      <c r="F130">
+      <c r="E130">
         <v>317.3</v>
       </c>
-      <c r="G130" t="s">
-        <v>189</v>
-      </c>
-      <c r="H130" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C131">
         <v>0.602</v>
@@ -4340,25 +3158,16 @@
       <c r="D131">
         <v>3.31</v>
       </c>
-      <c r="E131" t="s">
-        <v>189</v>
-      </c>
-      <c r="F131">
+      <c r="E131">
         <v>3549.4</v>
       </c>
-      <c r="G131" t="s">
-        <v>189</v>
-      </c>
-      <c r="H131" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C132">
         <v>0.669</v>
@@ -4366,25 +3175,16 @@
       <c r="D132">
         <v>0.487</v>
       </c>
-      <c r="E132" t="s">
-        <v>189</v>
-      </c>
-      <c r="F132">
+      <c r="E132">
         <v>442.3</v>
       </c>
-      <c r="G132" t="s">
-        <v>189</v>
-      </c>
-      <c r="H132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C133">
         <v>0.337</v>
@@ -4392,25 +3192,16 @@
       <c r="D133">
         <v>0.664</v>
       </c>
-      <c r="E133" t="s">
-        <v>189</v>
-      </c>
-      <c r="F133">
+      <c r="E133">
         <v>10.14</v>
       </c>
-      <c r="G133" t="s">
-        <v>189</v>
-      </c>
-      <c r="H133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C134">
         <v>0.768</v>
@@ -4418,25 +3209,16 @@
       <c r="D134">
         <v>1.95</v>
       </c>
-      <c r="E134" t="s">
-        <v>189</v>
-      </c>
-      <c r="F134">
+      <c r="E134">
         <v>14061.86</v>
       </c>
-      <c r="G134" t="s">
-        <v>189</v>
-      </c>
-      <c r="H134" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C135">
         <v>0.324</v>
@@ -4444,25 +3226,16 @@
       <c r="D135">
         <v>0.48</v>
       </c>
-      <c r="E135" t="s">
-        <v>189</v>
-      </c>
-      <c r="F135">
+      <c r="E135">
         <v>549</v>
       </c>
-      <c r="G135" t="s">
-        <v>189</v>
-      </c>
-      <c r="H135" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C136">
         <v>0.468</v>
@@ -4470,25 +3243,16 @@
       <c r="D136">
         <v>1.6</v>
       </c>
-      <c r="E136" t="s">
-        <v>189</v>
-      </c>
-      <c r="F136">
+      <c r="E136">
         <v>789.1875</v>
       </c>
-      <c r="G136" t="s">
-        <v>189</v>
-      </c>
-      <c r="H136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C137">
         <v>0.489</v>
@@ -4496,25 +3260,16 @@
       <c r="D137">
         <v>1.65</v>
       </c>
-      <c r="E137" t="s">
-        <v>189</v>
-      </c>
-      <c r="F137">
+      <c r="E137">
         <v>329.52</v>
       </c>
-      <c r="G137" t="s">
-        <v>189</v>
-      </c>
-      <c r="H137" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C138">
         <v>0.5670000000000001</v>
@@ -4522,25 +3277,16 @@
       <c r="D138">
         <v>7.7</v>
       </c>
-      <c r="E138" t="s">
-        <v>189</v>
-      </c>
-      <c r="F138">
+      <c r="E138">
         <v>3881.19</v>
       </c>
-      <c r="G138" t="s">
-        <v>189</v>
-      </c>
-      <c r="H138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C139">
         <v>0.623</v>
@@ -4548,25 +3294,16 @@
       <c r="D139">
         <v>3.86</v>
       </c>
-      <c r="E139" t="s">
-        <v>189</v>
-      </c>
-      <c r="F139">
+      <c r="E139">
         <v>1077.887</v>
       </c>
-      <c r="G139" t="s">
-        <v>189</v>
-      </c>
-      <c r="H139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C140">
         <v>0.639</v>
@@ -4574,25 +3311,16 @@
       <c r="D140">
         <v>6.29</v>
       </c>
-      <c r="E140" t="s">
-        <v>189</v>
-      </c>
-      <c r="F140">
+      <c r="E140">
         <v>8633.5</v>
       </c>
-      <c r="G140" t="s">
-        <v>189</v>
-      </c>
-      <c r="H140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C141">
         <v>0.489</v>
@@ -4600,25 +3328,16 @@
       <c r="D141">
         <v>8.84</v>
       </c>
-      <c r="E141" t="s">
-        <v>189</v>
-      </c>
-      <c r="F141">
+      <c r="E141">
         <v>689.3</v>
       </c>
-      <c r="G141" t="s">
-        <v>189</v>
-      </c>
-      <c r="H141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C142">
         <v>0.338</v>
@@ -4626,25 +3345,16 @@
       <c r="D142">
         <v>5.39</v>
       </c>
-      <c r="E142" t="s">
-        <v>189</v>
-      </c>
-      <c r="F142">
+      <c r="E142">
         <v>2160.5</v>
       </c>
-      <c r="G142" t="s">
-        <v>189</v>
-      </c>
-      <c r="H142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C143">
         <v>0.492</v>
@@ -4652,25 +3362,16 @@
       <c r="D143">
         <v>6.69</v>
       </c>
-      <c r="E143" t="s">
-        <v>189</v>
-      </c>
-      <c r="F143">
+      <c r="E143">
         <v>3833</v>
       </c>
-      <c r="G143" t="s">
-        <v>189</v>
-      </c>
-      <c r="H143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C144">
         <v>0.4429999999999999</v>
@@ -4678,25 +3379,16 @@
       <c r="D144">
         <v>4.22</v>
       </c>
-      <c r="E144" t="s">
-        <v>189</v>
-      </c>
-      <c r="F144">
+      <c r="E144">
         <v>1922</v>
       </c>
-      <c r="G144" t="s">
-        <v>189</v>
-      </c>
-      <c r="H144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C145">
         <v>0.5329999999999999</v>
@@ -4704,25 +3396,16 @@
       <c r="D145">
         <v>5.99</v>
       </c>
-      <c r="E145" t="s">
-        <v>189</v>
-      </c>
-      <c r="F145">
+      <c r="E145">
         <v>172.71</v>
       </c>
-      <c r="G145" t="s">
-        <v>189</v>
-      </c>
-      <c r="H145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C146">
         <v>0.5660000000000001</v>
@@ -4730,25 +3413,16 @@
       <c r="D146">
         <v>9.890000000000001</v>
       </c>
-      <c r="E146" t="s">
-        <v>189</v>
-      </c>
-      <c r="F146">
+      <c r="E146">
         <v>2668.39</v>
       </c>
-      <c r="G146" t="s">
-        <v>189</v>
-      </c>
-      <c r="H146" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C147">
         <v>0.5820000000000001</v>
@@ -4756,25 +3430,16 @@
       <c r="D147">
         <v>6.19</v>
       </c>
-      <c r="E147" t="s">
-        <v>189</v>
-      </c>
-      <c r="F147">
+      <c r="E147">
         <v>624.6799999999999</v>
       </c>
-      <c r="G147" t="s">
-        <v>189</v>
-      </c>
-      <c r="H147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C148">
         <v>0.583</v>
@@ -4782,25 +3447,16 @@
       <c r="D148">
         <v>12.1</v>
       </c>
-      <c r="E148" t="s">
-        <v>189</v>
-      </c>
-      <c r="F148">
+      <c r="E148">
         <v>2421.01</v>
       </c>
-      <c r="G148" t="s">
-        <v>189</v>
-      </c>
-      <c r="H148" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C149">
         <v>0.5329999999999999</v>
@@ -4808,25 +3464,16 @@
       <c r="D149">
         <v>8.06</v>
       </c>
-      <c r="E149" t="s">
-        <v>189</v>
-      </c>
-      <c r="F149">
+      <c r="E149">
         <v>22409</v>
       </c>
-      <c r="G149" t="s">
-        <v>189</v>
-      </c>
-      <c r="H149" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C150">
         <v>0.498</v>
@@ -4834,25 +3481,16 @@
       <c r="D150">
         <v>5.3</v>
       </c>
-      <c r="E150" t="s">
-        <v>189</v>
-      </c>
-      <c r="F150">
+      <c r="E150">
         <v>16836</v>
       </c>
-      <c r="G150" t="s">
-        <v>189</v>
-      </c>
-      <c r="H150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C151">
         <v>0.6</v>
@@ -4860,25 +3498,16 @@
       <c r="D151">
         <v>2.38</v>
       </c>
-      <c r="E151" t="s">
-        <v>189</v>
-      </c>
-      <c r="F151">
+      <c r="E151">
         <v>2822.4</v>
       </c>
-      <c r="G151" t="s">
-        <v>189</v>
-      </c>
-      <c r="H151" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C152">
         <v>0.575</v>
@@ -4886,25 +3515,16 @@
       <c r="D152">
         <v>9.74</v>
       </c>
-      <c r="E152" t="s">
-        <v>189</v>
-      </c>
-      <c r="F152">
+      <c r="E152">
         <v>11419</v>
       </c>
-      <c r="G152" t="s">
-        <v>189</v>
-      </c>
-      <c r="H152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C153">
         <v>0.399</v>
@@ -4912,25 +3532,16 @@
       <c r="D153">
         <v>7.04</v>
       </c>
-      <c r="E153" t="s">
-        <v>189</v>
-      </c>
-      <c r="F153">
+      <c r="E153">
         <v>3901.803</v>
       </c>
-      <c r="G153" t="s">
-        <v>189</v>
-      </c>
-      <c r="H153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C154">
         <v>0.511</v>
@@ -4938,25 +3549,16 @@
       <c r="D154">
         <v>4.78</v>
       </c>
-      <c r="E154" t="s">
-        <v>189</v>
-      </c>
-      <c r="F154">
+      <c r="E154">
         <v>2060.82</v>
       </c>
-      <c r="G154" t="s">
-        <v>189</v>
-      </c>
-      <c r="H154" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C155">
         <v>0.74</v>
@@ -4964,25 +3566,16 @@
       <c r="D155">
         <v>10.7</v>
       </c>
-      <c r="E155" t="s">
-        <v>189</v>
-      </c>
-      <c r="F155">
+      <c r="E155">
         <v>48.16</v>
       </c>
-      <c r="G155" t="s">
-        <v>189</v>
-      </c>
-      <c r="H155" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C156">
         <v>0.546</v>
@@ -4990,25 +3583,16 @@
       <c r="D156">
         <v>8.27</v>
       </c>
-      <c r="E156" t="s">
-        <v>189</v>
-      </c>
-      <c r="F156">
+      <c r="E156">
         <v>754.67</v>
       </c>
-      <c r="G156" t="s">
-        <v>189</v>
-      </c>
-      <c r="H156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C157">
         <v>0.426</v>
@@ -5016,25 +3600,16 @@
       <c r="D157">
         <v>5.88</v>
       </c>
-      <c r="E157" t="s">
-        <v>189</v>
-      </c>
-      <c r="F157">
+      <c r="E157">
         <v>9297.08</v>
       </c>
-      <c r="G157" t="s">
-        <v>189</v>
-      </c>
-      <c r="H157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C158">
         <v>0.5429999999999999</v>
@@ -5042,25 +3617,16 @@
       <c r="D158">
         <v>3.65</v>
       </c>
-      <c r="E158" t="s">
-        <v>189</v>
-      </c>
-      <c r="F158">
+      <c r="E158">
         <v>3391.44</v>
       </c>
-      <c r="G158" t="s">
-        <v>189</v>
-      </c>
-      <c r="H158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C159">
         <v>0.539</v>
@@ -5068,25 +3634,16 @@
       <c r="D159">
         <v>4.48</v>
       </c>
-      <c r="E159" t="s">
-        <v>189</v>
-      </c>
-      <c r="F159">
+      <c r="E159">
         <v>2187</v>
       </c>
-      <c r="G159" t="s">
-        <v>189</v>
-      </c>
-      <c r="H159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C160">
         <v>0.5539999999999999</v>
@@ -5094,25 +3651,16 @@
       <c r="D160">
         <v>16.5</v>
       </c>
-      <c r="E160" t="s">
-        <v>189</v>
-      </c>
-      <c r="F160">
+      <c r="E160">
         <v>88.7</v>
       </c>
-      <c r="G160" t="s">
-        <v>189</v>
-      </c>
-      <c r="H160" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C161">
         <v>0.513</v>
@@ -5120,25 +3668,16 @@
       <c r="D161">
         <v>3.96</v>
       </c>
-      <c r="E161" t="s">
-        <v>189</v>
-      </c>
-      <c r="F161">
+      <c r="E161">
         <v>0.35</v>
       </c>
-      <c r="G161" t="s">
-        <v>189</v>
-      </c>
-      <c r="H161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C162">
         <v>0.425</v>
@@ -5146,25 +3685,16 @@
       <c r="D162">
         <v>1.18</v>
       </c>
-      <c r="E162" t="s">
-        <v>189</v>
-      </c>
-      <c r="F162">
+      <c r="E162">
         <v>386.4</v>
       </c>
-      <c r="G162" t="s">
-        <v>189</v>
-      </c>
-      <c r="H162" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C163">
         <v>0.403</v>
@@ -5172,25 +3702,16 @@
       <c r="D163">
         <v>3.57</v>
       </c>
-      <c r="E163" t="s">
-        <v>189</v>
-      </c>
-      <c r="F163">
+      <c r="E163">
         <v>827</v>
       </c>
-      <c r="G163" t="s">
-        <v>189</v>
-      </c>
-      <c r="H163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C164">
         <v>0.597</v>
@@ -5198,25 +3719,16 @@
       <c r="D164">
         <v>9.83</v>
       </c>
-      <c r="E164" t="s">
-        <v>189</v>
-      </c>
-      <c r="F164">
+      <c r="E164">
         <v>364.83</v>
       </c>
-      <c r="G164" t="s">
-        <v>189</v>
-      </c>
-      <c r="H164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C165">
         <v>0.621</v>
@@ -5224,25 +3736,16 @@
       <c r="D165">
         <v>8.720000000000001</v>
       </c>
-      <c r="E165" t="s">
-        <v>189</v>
-      </c>
-      <c r="F165">
+      <c r="E165">
         <v>12141</v>
       </c>
-      <c r="G165" t="s">
-        <v>189</v>
-      </c>
-      <c r="H165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C166">
         <v>0.524</v>
@@ -5250,25 +3753,16 @@
       <c r="D166">
         <v>8.220000000000001</v>
       </c>
-      <c r="E166" t="s">
-        <v>189</v>
-      </c>
-      <c r="F166">
+      <c r="E166">
         <v>9420</v>
       </c>
-      <c r="G166" t="s">
-        <v>189</v>
-      </c>
-      <c r="H166" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C167">
         <v>0.513</v>
@@ -5276,25 +3770,16 @@
       <c r="D167">
         <v>5.04</v>
       </c>
-      <c r="E167" t="s">
-        <v>189</v>
-      </c>
-      <c r="F167">
+      <c r="E167">
         <v>3312</v>
       </c>
-      <c r="G167" t="s">
-        <v>189</v>
-      </c>
-      <c r="H167" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C168">
         <v>0.506</v>
@@ -5302,25 +3787,16 @@
       <c r="D168">
         <v>3.91</v>
       </c>
-      <c r="E168" t="s">
-        <v>189</v>
-      </c>
-      <c r="F168">
+      <c r="E168">
         <v>6900.96</v>
       </c>
-      <c r="G168" t="s">
-        <v>189</v>
-      </c>
-      <c r="H168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C169">
         <v>0.601</v>
@@ -5328,25 +3804,16 @@
       <c r="D169">
         <v>11.2</v>
       </c>
-      <c r="E169" t="s">
-        <v>189</v>
-      </c>
-      <c r="F169">
+      <c r="E169">
         <v>814930.46</v>
       </c>
-      <c r="G169" t="s">
-        <v>189</v>
-      </c>
-      <c r="H169" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C170">
         <v>0.427</v>
@@ -5354,25 +3821,16 @@
       <c r="D170">
         <v>4.93</v>
       </c>
-      <c r="E170" t="s">
-        <v>189</v>
-      </c>
-      <c r="F170">
+      <c r="E170">
         <v>2719.53</v>
       </c>
-      <c r="G170" t="s">
-        <v>189</v>
-      </c>
-      <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C171">
         <v>0.528</v>
@@ -5380,25 +3838,16 @@
       <c r="D171">
         <v>6.35</v>
       </c>
-      <c r="E171" t="s">
-        <v>189</v>
-      </c>
-      <c r="F171">
+      <c r="E171">
         <v>1921.75</v>
       </c>
-      <c r="G171" t="s">
-        <v>189</v>
-      </c>
-      <c r="H171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C172">
         <v>0.522</v>
@@ -5406,25 +3855,16 @@
       <c r="D172">
         <v>6.58</v>
       </c>
-      <c r="E172" t="s">
-        <v>189</v>
-      </c>
-      <c r="F172">
+      <c r="E172">
         <v>1248</v>
       </c>
-      <c r="G172" t="s">
-        <v>189</v>
-      </c>
-      <c r="H172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C173">
         <v>0.455</v>
@@ -5432,25 +3872,16 @@
       <c r="D173">
         <v>5.81</v>
       </c>
-      <c r="E173" t="s">
-        <v>189</v>
-      </c>
-      <c r="F173">
+      <c r="E173">
         <v>18551.18</v>
       </c>
-      <c r="G173" t="s">
-        <v>189</v>
-      </c>
-      <c r="H173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C174">
         <v>0.5920000000000001</v>
@@ -5458,25 +3889,16 @@
       <c r="D174">
         <v>4.41</v>
       </c>
-      <c r="E174" t="s">
-        <v>189</v>
-      </c>
-      <c r="F174">
+      <c r="E174">
         <v>27980</v>
       </c>
-      <c r="G174" t="s">
-        <v>189</v>
-      </c>
-      <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C175">
         <v>0.649</v>
@@ -5484,25 +3906,16 @@
       <c r="D175">
         <v>4.67</v>
       </c>
-      <c r="E175" t="s">
-        <v>189</v>
-      </c>
-      <c r="F175">
+      <c r="E175">
         <v>1251.91</v>
       </c>
-      <c r="G175" t="s">
-        <v>189</v>
-      </c>
-      <c r="H175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C176">
         <v>0.458</v>
@@ -5510,25 +3923,16 @@
       <c r="D176">
         <v>4.86</v>
       </c>
-      <c r="E176" t="s">
-        <v>189</v>
-      </c>
-      <c r="F176">
+      <c r="E176">
         <v>21630.3</v>
       </c>
-      <c r="G176" t="s">
-        <v>189</v>
-      </c>
-      <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C177">
         <v>0.496</v>
@@ -5536,25 +3940,16 @@
       <c r="D177">
         <v>4.99</v>
       </c>
-      <c r="E177" t="s">
-        <v>189</v>
-      </c>
-      <c r="F177">
+      <c r="E177">
         <v>9657</v>
       </c>
-      <c r="G177" t="s">
-        <v>189</v>
-      </c>
-      <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C178">
         <v>0.589</v>
@@ -5562,17 +3957,8 @@
       <c r="D178">
         <v>6.42</v>
       </c>
-      <c r="E178" t="s">
-        <v>189</v>
-      </c>
-      <c r="F178">
+      <c r="E178">
         <v>3155</v>
-      </c>
-      <c r="G178" t="s">
-        <v>189</v>
-      </c>
-      <c r="H178" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
